--- a/apartments.xlsx
+++ b/apartments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>rooms</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>floor</t>
         </is>
@@ -473,1982 +478,6082 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T01</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>786.896 €</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>107.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T02</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>769.384 €</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T03</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73.50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>646.800 €</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T04</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.6.30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>105.91</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>899.176 €</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T05</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.6.36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>104.84</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>890.092 €</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T06</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>2.6.37</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>137.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.350.000 €</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T07</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1.6.29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>123.00</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.119.300 €</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T08</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.6.35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>118.00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.073.800 €</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>VHS EG</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Trade 1</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.6.24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>457.000 €</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Ground floor garden</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WE01</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.6.18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.94</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>458.490 €</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>VHS EG</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trade 2</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.6.21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32.60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>254.280 €</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Ground floor garden</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WE02</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.6.22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>40.80</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>346.800 €</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor li</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WE03</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.6.23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31.50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>258.300 €</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WE04</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.6.17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>187.850 €</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WE05</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.6.16</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>186.150 €</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+          <t>112.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 3</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WE06</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.6.24</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>186.150 €</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+          <t>111.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WE07</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.6.22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>204.850 €</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WE08</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.6.32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27.41</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>232.985 €</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor r 1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WE09</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.6.33</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>191.250 €</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>64.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>VHS 1st floor r 2</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WE10</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.6.34</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>188.700 €</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WE11</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.6.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31.50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>272.475 €</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 1</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WE12</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.6.21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22.10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>191.165 €</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+          <t>113.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WE13</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.6.24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>189.435 €</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>122.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WE14</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.6.23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>189.435 €</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WE15</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.6.22</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25.20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>217.980 €</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WE16</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.6.21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24.26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>209.849 €</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re 1</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WE17</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5.28</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>194.625 €</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>120.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re 2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WE18</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>1.5.27</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>192.030 €</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WE19</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>1.5.26</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>31.80</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>278.250 €</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 1</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WE20</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>1.5.25</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>194.250 €</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WE21</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5.24</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>192.500 €</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>100.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WE22</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>2.5.30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>192.500 €</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WE23</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5.31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>218.838 €</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>100.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WE24</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>2.5.29</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>24.22</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>211.925 €</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re 1</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WE25</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.5.20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>196.875 €</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re 2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WE26</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.5.15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>196.000 €</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor li</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WE27</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.5.14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>31.80</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>278.250 €</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 1</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WE28</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.5.17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>195.360 €</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WE29</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.5.19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>193.600 €</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 3</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WE30</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.5.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>193.600 €</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 4</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WE31</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.5.13</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>212.960 €</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>112.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WE32</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5.26</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>213.136 €</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor re 1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WE33</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5.27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>198.000 €</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>64.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>VHS 4th floor re 2</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WE34</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5.28</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>197.120 €</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor li</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WE35</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.5.17</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>31.80</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>279.840 €</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 1</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WE36</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.5.20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>196.470 €</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>111.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WE37</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.5.19</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>194.700 €</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 3</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WE38</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.5.18</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>194.700 €</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WE39</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.5.17</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>214.170 €</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>113.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor re</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WE40</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.5.20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>214.347 €</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>121.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor re 1</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WE41</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.5.18</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>199.125 €</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>VHS 5th floor re 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WE42</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6.5.19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>198.240 €</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor li</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WE43</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.4.23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>219.480 €</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>125.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 1</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WE44</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>1.4.22</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>151.300 €</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WE45</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>1.4.21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>16.90</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>150.410 €</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 3</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WE46</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>1.4.20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>16.90</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>150.410 €</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WE47</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>2.4.23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>19.10</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>169.990 €</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WE48</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>2.4.22</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>169.100 €</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor re 1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WE49</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.4.19</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>153.080 €</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>VHS 6th floor re 2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WE50</t>
+          <t>franz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>3.4.16</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3.4.15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3.4.14</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3.4.13</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.4.11</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.4.12</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.4.10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>112.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.4.19</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.4.18</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>152.190 €</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.4.24</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2.4.25</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2.4.20</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2.4.21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5.4.16</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>111.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5.4.15</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6.4.15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.4.14</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>55.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5.4.13</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>113.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6.4.16</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>121.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.4.13</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6.4.14</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2.3.12</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66.45</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2.3.15</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2.3.16</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1.3.14</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.3.15</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1.3.16</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.3.17</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>124.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3.3.12</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>122.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3.3.11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3.3.10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>58.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3.3.09</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.3.09</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.3.08</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.3.07</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>112.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1.3.13</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1.3.12</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2.3.17</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2.3.18</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2.3.13</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2.3.14</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5.3.12</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>111.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5.3.11</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>55.23</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5.3.10</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>6.3.11</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>6.3.10</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6.3.09</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6.3.12</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>121.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5.3.09</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>112.71</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1.2.09</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1.2.08</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1.2.11</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>124.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2.2.09</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2.2.08</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.2.10</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2.2.06</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>101.41</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2.2.07</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>122.44</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3.2.08</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>122.51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3.2.07</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3.2.06</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>58.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3.2.05</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.2.06</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.2.05</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.2.04</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>111.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6.2.05</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5.2.08</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>110.99</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1.2.07</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2.2.10</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1.2.06</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2.2.11</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5.2.07</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>55.23</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5.2.06</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>6.2.06</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>6.2.07</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6.2.08</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>121.22</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5.2.05</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>112.67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1.1.04</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.1.03</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1.1.02</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1.1.05</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>104.58</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1.1.01</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>101.90</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2.1.05</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>102.06</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2.1.04</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2.1.03</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>45.68</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2.1.01</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>100.75</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2.1.02</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>113.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3.1.04</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>121.71</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3.1.03</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3.1.02</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3.1.01</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>66.66</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.1.02</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.1.03</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>101.02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.1.01</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>110.14</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5.1.04</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>108.83</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5.1.03</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5.1.02</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>42.98</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>5.1.01</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>113.94</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6.1.04</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>119.50</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>6.1.01</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6.1.02</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>6.1.03</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>sold/reserved</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/apartments.xlsx
+++ b/apartments.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>location</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>provider</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -478,14 +478,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1.6.33</t>
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>107.08</t>
+          <t>107.08 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -516,14 +516,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>1.6.32</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>38.15 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -554,14 +554,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>1.6.31</t>
@@ -574,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.16</t>
+          <t>39.16 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -592,14 +592,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>1.6.30</t>
@@ -612,7 +612,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.31</t>
+          <t>36.31 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -630,14 +630,14 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>2.6.36</t>
@@ -650,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36.60</t>
+          <t>36.60 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -668,14 +668,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>2.6.37</t>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.65 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -706,14 +706,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>1.6.29</t>
@@ -726,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.65 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -744,14 +744,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>2.6.35</t>
@@ -764,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.07 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -782,14 +782,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>3.6.24</t>
@@ -802,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>123.33</t>
+          <t>123.33 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -820,14 +820,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>4.6.18</t>
@@ -840,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>101.92</t>
+          <t>101.92 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -858,14 +858,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>3.6.21</t>
@@ -878,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>69.43</t>
+          <t>69.43 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -896,14 +896,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>3.6.22</t>
@@ -916,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>59.11 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -934,14 +934,14 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>3.6.23</t>
@@ -954,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>54.46 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -972,14 +972,14 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>4.6.17</t>
@@ -992,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>90.48 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1010,14 +1010,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>4.6.16</t>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>112.69</t>
+          <t>112.69 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1048,14 +1048,14 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>5.6.24</t>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111.79</t>
+          <t>111.79 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1086,14 +1086,14 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>5.6.22</t>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>55.86</t>
+          <t>55.86 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1124,14 +1124,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>2.6.32</t>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>65.76</t>
+          <t>65.76 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1162,14 +1162,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>2.6.33</t>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>64.12</t>
+          <t>64.12 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1200,14 +1200,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>2.6.34</t>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>92.43 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1238,14 +1238,14 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>5.6.23</t>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>55.51</t>
+          <t>55.51 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1276,14 +1276,14 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>5.6.21</t>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>113.43</t>
+          <t>113.43 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1314,14 +1314,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>6.6.24</t>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>122.15</t>
+          <t>122.15 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1352,14 +1352,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>6.6.23</t>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>86.76</t>
+          <t>86.76 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1390,14 +1390,14 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>6.6.22</t>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>68.42</t>
+          <t>68.42 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1428,14 +1428,14 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>6.6.21</t>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>96.33 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1466,14 +1466,14 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>1.5.28</t>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>120.08</t>
+          <t>120.08 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1504,14 +1504,14 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>1.5.27</t>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>38.15 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1542,14 +1542,14 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>1.5.26</t>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>39.16</t>
+          <t>39.16 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1580,14 +1580,14 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>1.5.25</t>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>36.31</t>
+          <t>36.31 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1618,14 +1618,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>1.5.24</t>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100.79</t>
+          <t>100.79 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1656,14 +1656,14 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>2.5.30</t>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>36.60</t>
+          <t>36.60 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1694,14 +1694,14 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>2.5.31</t>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100.79</t>
+          <t>100.79 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1732,14 +1732,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>2.5.29</t>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.07 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1770,14 +1770,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>3.5.20</t>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>123.33</t>
+          <t>123.33 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1808,14 +1808,14 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>4.5.15</t>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>101.92</t>
+          <t>101.92 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1846,14 +1846,14 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>4.5.14</t>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>90.48 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1884,14 +1884,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>3.5.17</t>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>69.43</t>
+          <t>69.43 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1922,14 +1922,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>3.5.19</t>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>54.46 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1960,14 +1960,14 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>3.5.18</t>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>59.11 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1998,14 +1998,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>4.5.13</t>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>112.69</t>
+          <t>112.69 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2036,14 +2036,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>2.5.26</t>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>65.76</t>
+          <t>65.76 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2074,14 +2074,14 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>2.5.27</t>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>64.12</t>
+          <t>64.12 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2112,14 +2112,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>2.5.28</t>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>92.43 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2150,14 +2150,14 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>6.5.17</t>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>96.33 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2188,14 +2188,14 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>5.5.20</t>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>111.78</t>
+          <t>111.78 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2226,14 +2226,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>5.5.19</t>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>55.51</t>
+          <t>55.51 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2264,14 +2264,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>5.5.18</t>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>55.86</t>
+          <t>55.86 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2302,14 +2302,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>5.5.17</t>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>113.43</t>
+          <t>113.43 m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2340,14 +2340,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>6.5.20</t>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>121.99</t>
+          <t>121.99 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2378,14 +2378,14 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>6.5.18</t>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>68.42</t>
+          <t>68.42 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2416,14 +2416,14 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>6.5.19</t>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>86.77 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2454,14 +2454,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>1.4.23</t>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>125.32</t>
+          <t>125.32 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2492,14 +2492,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>1.4.22</t>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>38.15 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2530,14 +2530,14 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>1.4.21</t>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>39.16</t>
+          <t>39.16 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2568,14 +2568,14 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>1.4.20</t>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>36.31</t>
+          <t>36.31 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2606,14 +2606,14 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>2.4.23</t>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>36.60</t>
+          <t>36.60 m²</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2644,14 +2644,14 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>2.4.22</t>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.07 m²</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2682,14 +2682,14 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>2.4.19</t>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>67.24</t>
+          <t>67.24 m²</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2720,14 +2720,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>3.4.16</t>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>123.33</t>
+          <t>123.33 m²</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2758,14 +2758,14 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>3.4.15</t>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>54.46 m²</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2796,14 +2796,14 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>3.4.14</t>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>59.11 m²</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2834,14 +2834,14 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>3.4.13</t>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>69.43</t>
+          <t>69.43 m²</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2872,14 +2872,14 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>4.4.11</t>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>90.48 m²</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2910,14 +2910,14 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>4.4.12</t>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>101.92</t>
+          <t>101.92 m²</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2948,14 +2948,14 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>4.4.10</t>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>112.68</t>
+          <t>112.68 m²</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2986,14 +2986,14 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>1.4.19</t>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>64.18</t>
+          <t>64.18 m²</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3024,14 +3024,14 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>1.4.18</t>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>39.07</t>
+          <t>39.07 m²</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3062,14 +3062,14 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>2.4.24</t>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>64.18</t>
+          <t>64.18 m²</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3100,14 +3100,14 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>2.4.25</t>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>39.07</t>
+          <t>39.07 m²</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3138,14 +3138,14 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>2.4.20</t>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>64.05</t>
+          <t>64.05 m²</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3176,14 +3176,14 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>2.4.21</t>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>92.43 m²</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -3214,14 +3214,14 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>5.4.16</t>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>111.76</t>
+          <t>111.76 m²</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3252,14 +3252,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>5.4.15</t>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>55.52</t>
+          <t>55.52 m²</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3290,14 +3290,14 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>6.4.15</t>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>86.77 m²</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3328,14 +3328,14 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>5.4.14</t>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>55.68</t>
+          <t>55.68 m²</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3366,14 +3366,14 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>5.4.13</t>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>113.43</t>
+          <t>113.43 m²</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -3404,14 +3404,14 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>6.4.16</t>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>121.99</t>
+          <t>121.99 m²</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3442,14 +3442,14 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>6.4.13</t>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>96.33 m²</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3480,14 +3480,14 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>6.4.14</t>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>68.42</t>
+          <t>68.42 m²</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3518,14 +3518,14 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>2.3.12</t>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>66.45</t>
+          <t>66.45 m²</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -3556,14 +3556,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>2.3.15</t>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>42.85</t>
+          <t>42.85 m²</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -3594,14 +3594,14 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>2.3.16</t>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>36.59</t>
+          <t>36.59 m²</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3632,14 +3632,14 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>1.3.14</t>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.13 m²</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3670,14 +3670,14 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>1.3.15</t>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>38.98</t>
+          <t>38.98 m²</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3708,14 +3708,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>1.3.16</t>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>37.97</t>
+          <t>37.97 m²</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3746,14 +3746,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>1.3.17</t>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>124.38</t>
+          <t>124.38 m²</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -3784,14 +3784,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>3.3.12</t>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>122.51</t>
+          <t>122.51 m²</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3822,14 +3822,14 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>3.3.11</t>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>54.17</t>
+          <t>54.17 m²</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3860,14 +3860,14 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>3.3.10</t>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>58.83</t>
+          <t>58.83 m²</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3898,14 +3898,14 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>3.3.09</t>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>68.97 m²</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -3936,14 +3936,14 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>4.3.09</t>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>100.95</t>
+          <t>100.95 m²</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -3974,14 +3974,14 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>4.3.08</t>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>90.19 m²</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4012,14 +4012,14 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>4.3.07</t>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>112.01</t>
+          <t>112.01 m²</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4050,14 +4050,14 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>1.3.13</t>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>63.93 m²</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -4088,14 +4088,14 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>1.3.12</t>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>38.69 m²</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4126,14 +4126,14 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>2.3.17</t>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>63.92</t>
+          <t>63.92 m²</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4164,14 +4164,14 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>2.3.18</t>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>38.69 m²</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -4202,14 +4202,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>2.3.13</t>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>63.76 m²</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4240,14 +4240,14 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>2.3.14</t>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>91.83 m²</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -4278,14 +4278,14 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>5.3.12</t>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>111.07</t>
+          <t>111.07 m²</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4316,14 +4316,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>5.3.11</t>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>55.23</t>
+          <t>55.23 m²</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4354,14 +4354,14 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>5.3.10</t>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>55.57</t>
+          <t>55.57 m²</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4392,14 +4392,14 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>6.3.11</t>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>85.70 m²</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4430,14 +4430,14 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>6.3.10</t>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>68.12</t>
+          <t>68.12 m²</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -4468,14 +4468,14 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>6.3.09</t>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>95.42 m²</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4506,14 +4506,14 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>6.3.12</t>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>121.22</t>
+          <t>121.22 m²</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4544,14 +4544,14 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>5.3.09</t>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>112.71</t>
+          <t>112.71 m²</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -4582,14 +4582,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>1.2.09</t>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>38.98</t>
+          <t>38.98 m²</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4620,14 +4620,14 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>1.2.08</t>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.13 m²</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4658,14 +4658,14 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>1.2.11</t>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>124.38</t>
+          <t>124.38 m²</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4696,14 +4696,14 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>2.2.09</t>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>36.42</t>
+          <t>36.42 m²</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4734,14 +4734,14 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>2.2.08</t>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>42.80</t>
+          <t>42.80 m²</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4772,14 +4772,14 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>1.2.10</t>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>37.97</t>
+          <t>37.97 m²</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -4810,14 +4810,14 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>2.2.06</t>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>101.41</t>
+          <t>101.41 m²</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4848,14 +4848,14 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>2.2.07</t>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>122.44 m²</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4886,14 +4886,14 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>3.2.08</t>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>122.51</t>
+          <t>122.51 m²</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -4924,14 +4924,14 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>3.2.07</t>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>54.14</t>
+          <t>54.14 m²</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4962,14 +4962,14 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>3.2.06</t>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>58.83</t>
+          <t>58.83 m²</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -5000,14 +5000,14 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>3.2.05</t>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>68.97 m²</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -5038,14 +5038,14 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>4.2.06</t>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>100.95</t>
+          <t>100.95 m²</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -5076,14 +5076,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>4.2.05</t>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>90.18 m²</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -5114,14 +5114,14 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>4.2.04</t>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>111.99</t>
+          <t>111.99 m²</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -5152,14 +5152,14 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>6.2.05</t>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>95.37 m²</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -5190,14 +5190,14 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>5.2.08</t>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>110.99</t>
+          <t>110.99 m²</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -5228,14 +5228,14 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>1.2.07</t>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>63.92</t>
+          <t>63.92 m²</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -5266,14 +5266,14 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>2.2.10</t>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>63.92</t>
+          <t>63.92 m²</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -5304,14 +5304,14 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>1.2.06</t>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>38.69 m²</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5342,14 +5342,14 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>2.2.11</t>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>38.69 m²</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -5380,14 +5380,14 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>5.2.07</t>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>55.23</t>
+          <t>55.23 m²</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -5418,14 +5418,14 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>5.2.06</t>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>55.57</t>
+          <t>55.57 m²</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -5456,14 +5456,14 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>6.2.06</t>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>68.12</t>
+          <t>68.12 m²</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -5494,14 +5494,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>6.2.07</t>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>85.63</t>
+          <t>85.63 m²</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -5532,14 +5532,14 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C135" t="inlineStr">
         <is>
           <t>6.2.08</t>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>121.22</t>
+          <t>121.22 m²</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -5570,14 +5570,14 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>5.2.05</t>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>112.67</t>
+          <t>112.67 m²</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -5608,14 +5608,14 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>1.1.04</t>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>38.35</t>
+          <t>38.35 m²</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -5646,14 +5646,14 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>1.1.03</t>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>39.15</t>
+          <t>39.15 m²</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -5684,14 +5684,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>1.1.02</t>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>36.59</t>
+          <t>36.59 m²</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -5722,14 +5722,14 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>1.1.05</t>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>104.58</t>
+          <t>104.58 m²</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -5760,14 +5760,14 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>1.1.01</t>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>101.90</t>
+          <t>101.90 m²</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -5798,14 +5798,14 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>2.1.05</t>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>102.06</t>
+          <t>102.06 m²</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -5836,14 +5836,14 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>2.1.04</t>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>36.59</t>
+          <t>36.59 m²</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -5874,14 +5874,14 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>2.1.03</t>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>45.68</t>
+          <t>45.68 m²</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -5912,14 +5912,14 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>2.1.01</t>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>100.75</t>
+          <t>100.75 m²</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -5950,14 +5950,14 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>2.1.02</t>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>113.01</t>
+          <t>113.01 m²</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -5988,14 +5988,14 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>3.1.04</t>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>121.71</t>
+          <t>121.71 m²</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -6026,14 +6026,14 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>3.1.03</t>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>41.95 m²</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -6064,14 +6064,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>3.1.02</t>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>59.70</t>
+          <t>59.70 m²</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -6102,14 +6102,14 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C150" t="inlineStr">
         <is>
           <t>3.1.01</t>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>66.66</t>
+          <t>66.66 m²</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -6140,14 +6140,14 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>4.1.02</t>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>71.94 m²</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -6178,14 +6178,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>4.1.03</t>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>101.02</t>
+          <t>101.02 m²</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -6216,14 +6216,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>4.1.01</t>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>110.14</t>
+          <t>110.14 m²</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -6254,14 +6254,14 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C154" t="inlineStr">
         <is>
           <t>5.1.04</t>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>108.83</t>
+          <t>108.83 m²</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -6292,14 +6292,14 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C155" t="inlineStr">
         <is>
           <t>5.1.03</t>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>56.32</t>
+          <t>56.32 m²</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -6330,14 +6330,14 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>5.1.02</t>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>42.98</t>
+          <t>42.98 m²</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -6368,14 +6368,14 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>5.1.01</t>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>113.94</t>
+          <t>113.94 m²</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6406,14 +6406,14 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>6.1.04</t>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>119.50</t>
+          <t>119.50 m²</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -6444,14 +6444,14 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>6.1.01</t>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>95.65</t>
+          <t>95.65 m²</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -6482,14 +6482,14 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>6.1.02</t>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>65.93</t>
+          <t>65.93 m²</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -6520,14 +6520,14 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>franz</t>
-        </is>
-      </c>
       <c r="C161" t="inlineStr">
         <is>
           <t>6.1.03</t>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>81.19 m²</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>

--- a/apartments.xlsx
+++ b/apartments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T01</t>
+          <t>1.6.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89,42 m²</t>
+          <t>184,49 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>786.896 €</t>
+          <t>2.847.345 €</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,22 +511,26 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T02</t>
+          <t>2.6.42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -536,12 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87,40 m²</t>
+          <t>141,26 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>769.384 €</t>
+          <t>2.211.295 €</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -549,22 +553,26 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T03</t>
+          <t>2.6.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73,50 m²</t>
+          <t>116,58 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>646.800 €</t>
+          <t>1.927.767 €</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,37 +595,41 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T04</t>
+          <t>2.6.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>105,91 m²</t>
+          <t>143,51 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>899.176 €</t>
+          <t>2.246.517 €</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -625,37 +637,41 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T05</t>
+          <t>3.6.34</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>104,84 m²</t>
+          <t>182,48 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>890.092 €</t>
+          <t>2.715.740 €</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -663,113 +679,125 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T06</t>
+          <t>4.6.20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>126,58 m²</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.841.952 €</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>137,66 m²</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.350.000 €</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T07</t>
+          <t>5.6.24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>123,00 m²</t>
+          <t>197,26 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.119.300 €</t>
+          <t>2.826.973 €</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T08</t>
+          <t>5.6.25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>118,00 m²</t>
+          <t>144,22 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.073.800 €</t>
+          <t>2.066.846 €</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -777,75 +805,83 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VHS EG</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trade 1</t>
+          <t>6.6.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>61,00 m²</t>
+          <t>141,10 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>457.000 €</t>
+          <t>2.022.132 €</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ground floor garden</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WE01</t>
+          <t>6.6.44</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>53,94 m²</t>
+          <t>112,97 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>458.490 €</t>
+          <t>1.743.534 €</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -853,37 +889,41 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VHS EG</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trade 2</t>
+          <t>6.6.43</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32,60 m²</t>
+          <t>141,45 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>254.280 €</t>
+          <t>2.027.148 €</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -891,37 +931,41 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ground floor garden</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WE02</t>
+          <t>7.6.31</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40,80 m²</t>
+          <t>182,05 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>346.800 €</t>
+          <t>2.608.995 €</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -929,113 +973,125 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VHS 1st floor li</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WE03</t>
+          <t>7.6.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31,50 m²</t>
+          <t>116,60 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>258.300 €</t>
+          <t>1.671.018 €</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 1</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WE04</t>
+          <t>1.5.18</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22,10 m²</t>
+          <t>107,70 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>187.850 €</t>
+          <t>1.335.695 €</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 2</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WE05</t>
+          <t>2.5.35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21,90 m²</t>
+          <t>88,03 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>186.150 €</t>
+          <t>1.077.191 €</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1043,37 +1099,41 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WE06</t>
+          <t>2.5.40</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21,90 m²</t>
+          <t>107,48 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>186.150 €</t>
+          <t>1.350.740 €</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1081,265 +1141,293 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VHS 1st floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WE07</t>
+          <t>2.5.38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24,10 m²</t>
+          <t>88,12 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>204.850 €</t>
+          <t>1.078.293 €</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VHS 1st floor re</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WE08</t>
+          <t>3.5.33</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27,41 m²</t>
+          <t>116,11 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>232.985 €</t>
+          <t>1.305.597 €</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VHS 1st floor r 1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WE09</t>
+          <t>4.5.16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22,50 m²</t>
+          <t>141,56 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>191.250 €</t>
+          <t>1.560.557 €</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VHS 1st floor r 2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WE10</t>
+          <t>5.5.21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22,20 m²</t>
+          <t>105,23 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>188.700 €</t>
+          <t>1.206.458 €</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WE11</t>
+          <t>5.5.22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31,50 m²</t>
+          <t>124,51 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>272.475 €</t>
+          <t>1.420.639 €</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 1</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WE12</t>
+          <t>6.5.39</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22,10 m²</t>
+          <t>88,10 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>191.165 €</t>
+          <t>1.048.912 €</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WE13</t>
+          <t>6.5.37</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21,90 m²</t>
+          <t>103,92 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>189.435 €</t>
+          <t>1.271.632 €</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1347,379 +1435,419 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WE14</t>
+          <t>7.5.26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21,90 m²</t>
+          <t>124,74 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>189.435 €</t>
+          <t>1.498.896 €</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VHS 2nd floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WE15</t>
+          <t>2.4.28</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>25,20 m²</t>
+          <t>88,03 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>217.980 €</t>
+          <t>1.018.965 €</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WE16</t>
+          <t>2.4.31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24,26 m²</t>
+          <t>88,12 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>209.849 €</t>
+          <t>1.020.007 €</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re 1</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WE17</t>
+          <t>3.4.27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22,50 m²</t>
+          <t>116,11 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>194.625 €</t>
+          <t>1.241.597 €</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VHS 2nd floor re 2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WE18</t>
+          <t>4.4.15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22,20 m²</t>
+          <t>141,15 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>192.030 €</t>
+          <t>1.478.236 €</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WE19</t>
+          <t>5.4.16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31,80 m²</t>
+          <t>125,49 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>278.250 €</t>
+          <t>1.314.232 €</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 1</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WE20</t>
+          <t>5.4.17</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22,20 m²</t>
+          <t>105,23 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>194.250 €</t>
+          <t>1.125.254 €</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WE21</t>
+          <t>6.4.32</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>88,10 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>192.500 €</t>
+          <t>1.000.351 €</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WE22</t>
+          <t>6.4.28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>88,03 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>192.500 €</t>
+          <t>999.556 €</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VHS 3rd floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WE23</t>
+          <t>2.3.21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25,00 m²</t>
+          <t>87,53 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>218.838 €</t>
+          <t>974.580 €</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1727,60 +1855,68 @@
           <t>free</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WE24</t>
+          <t>2.3.24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24,22 m²</t>
+          <t>87,61 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>211.925 €</t>
+          <t>975.471 €</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re 1</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>WE25</t>
+          <t>3.3.16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1790,757 +1926,837 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22,50 m²</t>
+          <t>33,91 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>196.875 €</t>
+          <t>373.824 €</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VHS 3rd floor re 2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WE26</t>
+          <t>4.3.12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22,40 m²</t>
+          <t>140,18 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>196.000 €</t>
+          <t>1.390.810 €</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VHS 4th floor li</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WE27</t>
+          <t>5.3.13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31,80 m²</t>
+          <t>104,34 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>278.250 €</t>
+          <t>1.058.225 €</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 1</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WE28</t>
+          <t>5.3.14</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22,20 m²</t>
+          <t>123,79 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>195.360 €</t>
+          <t>1.275.958 €</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WE29</t>
+          <t>6.3.25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>87,59 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>193.600 €</t>
+          <t>955.936 €</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WE30</t>
+          <t>2.2.19</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>106,43 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>193.600 €</t>
+          <t>1.185.017 €</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VHS 4th floor li 4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WE31</t>
+          <t>2.2.17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>24,20 m²</t>
+          <t>87,61 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>212.960 €</t>
+          <t>946.496 €</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VHS 4th floor re</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WE32</t>
+          <t>3.2.15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>24,22 m²</t>
+          <t>115,35 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>213.136 €</t>
+          <t>1.183.016 €</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VHS 4th floor re 1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WE33</t>
+          <t>4.2.09</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>22,50 m²</t>
+          <t>140,18 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>198.000 €</t>
+          <t>1.372.000 €</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VHS 4th floor re 2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WE34</t>
+          <t>4.2.07</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22,40 m²</t>
+          <t>140,61 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>197.120 €</t>
+          <t>1.372.000 €</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VHS 5th floor li</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WE35</t>
+          <t>5.2.08</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31,80 m²</t>
+          <t>124,55 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>279.840 €</t>
+          <t>1.248.318 €</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 1</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WE36</t>
+          <t>6.2.18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22,20 m²</t>
+          <t>87,59 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>196.470 €</t>
+          <t>926.968 €</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WE37</t>
+          <t>6.2.16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>102,88 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>194.700 €</t>
+          <t>1.122.808 €</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WE38</t>
+          <t>7.2.11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>22,00 m²</t>
+          <t>124,60 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>194.700 €</t>
+          <t>1.332.383 €</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VHS 5th floor li 4</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>WE39</t>
+          <t>1.1.06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>106,60 m²</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.145.779 €</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>24,20 m²</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>214.170 €</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VHS 5th floor re</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>WE40</t>
+          <t>1.1.05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84,63 m²</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>909.637 €</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>24,22 m²</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>214.347 €</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VHS 5th floor re 1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WE41</t>
+          <t>2.1.07</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87,46 m²</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>915.951 €</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>22,50 m²</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>199.125 €</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VHS 5th floor re 2</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WE42</t>
+          <t>2.1.12</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>106,43 m²</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.149.819 €</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>22,40 m²</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>198.240 €</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VHS 6th floor li</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WE43</t>
+          <t>2.1.10</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87,61 m²</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>917.522 €</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>24,80 m²</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>219.480 €</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 1</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WE44</t>
+          <t>3.1.06</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89,80 m²</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>920.658 €</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>17,00 m²</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>151.300 €</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>WE45</t>
+          <t>3.1.04</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2550,210 +2766,1200 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>16,90 m²</t>
+          <t>33,91 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>150.410 €</t>
+          <t>371.456 €</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 3</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WE46</t>
+          <t>3.1.08</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>103,53 m²</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.037.643 €</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>16,90 m²</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>150.410 €</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VHS 6th floor li 4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WE47</t>
+          <t>3.1.09</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>115,22 m²</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.127.931 €</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>19,10 m²</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>169.990 €</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VHS 6th floor re</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WE48</t>
+          <t>4.1.06</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>140,06 m²</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.338.429 €</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>19,00 m²</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>169.100 €</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VHS 6th floor re 1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WE49</t>
+          <t>4.1.04</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>140,21 m²</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.339.863 €</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>17,20 m²</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>153.080 €</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ba94</t>
+          <t>amwinterfeldt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VHS 6th floor re 2</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WE50</t>
+          <t>7.1.06</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>124,66 m²</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.291.797 €</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>17,10 m²</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>152.190 €</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6.1.07</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87,44 m²</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>896.463 €</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>6.1.09</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>102,88 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.088.783 €</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5.1.03</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>124,55 m²</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.261.642 €</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5.1.04</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>104,10 m²</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.019.074 €</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.0.02</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81,91 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>862.342 €</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2.0.06</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35,14 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>387.018 €</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2.0.05</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71,53 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>749.119 €</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2.0.04</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>103,23 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.081.107 €</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.0.02</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87,80 m²</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>916.192 €</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3.0.03</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96,01 m²</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>984.668 €</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3.0.G2*</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>35,14 m²</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>464.860 €</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.0.03</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>70,84 m²</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> €</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.0.G4*</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>36,51 m²</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>482.983 €</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.0.G5*</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>59,43 m²</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>727.224 €</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5.0.02</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>67,22 m²</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>674.340 €</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.0.G7*</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37,97 m²</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>502.298 €</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5.0.G8*</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37,60 m²</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>497.403 €</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6.0.05</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87,34 m²</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>866.553 €</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.0.06</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>34,77 m²</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>374.833 €</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6.0.01</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>34,89 m²</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>376.126 €</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>7.0.01</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>121,39 m²</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.217.765 €</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>7.0.03</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>57,10 m²</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>591.702 €</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>amwinterfeldt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7.0.04</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>48,39 m²</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>521.661 €</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/apartments.xlsx
+++ b/apartments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,27 +488,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.6.31</t>
+          <t>1.6.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39,16 m²</t>
+          <t>107,08 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>410.892 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.6.35</t>
+          <t>1.6.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,17 +540,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43,07 m²</t>
+          <t>38,15 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>451.976 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -567,27 +567,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.6.18</t>
+          <t>1.6.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>101,92 m²</t>
+          <t>39,16 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.037.137 €</t>
+          <t>410.892 €</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,32 +609,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.6.17</t>
+          <t>1.6.30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90,48 m²</t>
+          <t>36,31 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>930.315 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -651,32 +651,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.6.16</t>
+          <t>2.6.36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>112,69 m²</t>
+          <t>36,60 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.128.815 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -693,32 +693,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.6.24</t>
+          <t>2.6.37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>111,79 m²</t>
+          <t>91,65 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.131.599 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -735,32 +735,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.6.21</t>
+          <t>1.6.29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>113,43 m²</t>
+          <t>91,65 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.148.201 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -777,27 +777,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.6.24</t>
+          <t>2.6.35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>122,15 m²</t>
+          <t>43,07 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.236.524 €</t>
+          <t>451.976 €</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -819,32 +819,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.6.23</t>
+          <t>3.6.24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86,76 m²</t>
+          <t>123,33 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>882.869 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.6.21</t>
+          <t>4.6.18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>96,33 m²</t>
+          <t>101,92 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>949.571 €</t>
+          <t>1.037.137 €</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -908,32 +908,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.5.20</t>
+          <t>3.6.21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>123,33 m²</t>
+          <t>69,43 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.156.958 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -945,37 +945,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.5.15</t>
+          <t>3.6.22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>101,92 m²</t>
+          <t>59,11 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>993.923 €</t>
+          <t>632.831 €</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -987,37 +987,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.5.14</t>
+          <t>3.6.23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90,48 m²</t>
+          <t>54,46 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>891.951 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1029,27 +1029,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.5.17</t>
+          <t>4.6.17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69,43 m²</t>
+          <t>90,48 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>691.800 €</t>
+          <t>930.315 €</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.5.13</t>
+          <t>4.6.16</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.081.035 €</t>
+          <t>1.128.815 €</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1113,27 +1113,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.5.27</t>
+          <t>5.6.24</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64,12 m²</t>
+          <t>111,79 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>625.298 €</t>
+          <t>1.131.599 €</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1155,37 +1155,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6.5.17</t>
+          <t>5.6.22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96,33 m²</t>
+          <t>55,86 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>908.730 €</t>
+          <t>603.904 €</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1197,37 +1197,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.5.20</t>
+          <t>2.6.32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>111,78 m²</t>
+          <t>65,76 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.084.105 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1239,37 +1239,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.5.17</t>
+          <t>2.6.33</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>113,43 m²</t>
+          <t>64,12 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.100.109 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1281,37 +1281,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6.5.18</t>
+          <t>2.6.34</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>68,42 m²</t>
+          <t>92,43 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>652.726 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6.5.19</t>
+          <t>5.6.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1338,22 +1338,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>86,77 m²</t>
+          <t>55,51 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>846.181 €</t>
+          <t>606.003 €</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.4.16</t>
+          <t>5.6.21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>123,33 m²</t>
+          <t>113,43 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.117.739 €</t>
+          <t>1.148.201 €</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1407,27 +1407,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.4.11</t>
+          <t>6.6.24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90,48 m²</t>
+          <t>122,15 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>863.179 €</t>
+          <t>1.236.524 €</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1449,27 +1449,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.4.12</t>
+          <t>6.6.23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101,92 m²</t>
+          <t>86,76 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>961.513 €</t>
+          <t>882.869 €</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1491,37 +1491,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.4.10</t>
+          <t>6.6.22</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>112,68 m²</t>
+          <t>68,42 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.045.199 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.4.21</t>
+          <t>6.6.21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92,43 m²</t>
+          <t>96,33 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>852.389 €</t>
+          <t>949.571 €</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.4.16</t>
+          <t>1.5.28</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1590,22 +1590,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>111,76 m²</t>
+          <t>120,08 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.048.420 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1617,37 +1617,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.4.15</t>
+          <t>1.5.27</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>86,77 m²</t>
+          <t>38,15 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>818.588 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1659,37 +1659,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.4.13</t>
+          <t>1.5.26</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>113,43 m²</t>
+          <t>39,16 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.064.039 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1701,37 +1701,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6.4.16</t>
+          <t>1.5.25</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>121,99 m²</t>
+          <t>36,31 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.144.388 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1743,37 +1743,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6.4.14</t>
+          <t>1.5.24</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>68,42 m²</t>
+          <t>100,79 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>630.969 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1785,37 +1785,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3.3.12</t>
+          <t>2.5.30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>122,51 m²</t>
+          <t>36,60 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.071.349 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1827,37 +1827,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.3.09</t>
+          <t>2.5.31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100,95 m²</t>
+          <t>100,79 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>920.260 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1869,37 +1869,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.3.08</t>
+          <t>2.5.29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90,19 m²</t>
+          <t>43,07 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>831.732 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.3.07</t>
+          <t>3.5.20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>112,01 m²</t>
+          <t>123,33 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.003.273 €</t>
+          <t>1.156.958 €</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.3.14</t>
+          <t>4.5.15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>91,83 m²</t>
+          <t>101,92 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>817.654 €</t>
+          <t>993.923 €</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1995,27 +1995,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.3.12</t>
+          <t>4.5.14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>111,07 m²</t>
+          <t>90,48 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.006.582 €</t>
+          <t>891.951 €</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6.3.11</t>
+          <t>3.5.17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>85,70 m²</t>
+          <t>69,43 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>781.241 €</t>
+          <t>691.800 €</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5.3.09</t>
+          <t>3.5.19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>112,71 m²</t>
+          <t>54,46 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.021.445 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.2.04</t>
+          <t>3.5.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>111,99 m²</t>
+          <t>59,11 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>967.481 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5.2.08</t>
+          <t>4.5.13</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>110,99 m²</t>
+          <t>112,69 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>960.626 €</t>
+          <t>1.081.035 €</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2205,37 +2205,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6.2.08</t>
+          <t>2.5.26</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>121,22 m²</t>
+          <t>65,76 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.096.735 €</t>
+          <t>0 €</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>sold</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2247,35 +2247,4949 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2.5.27</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64,12 m²</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>625.298 €</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2.5.28</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92,43 m²</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6.5.17</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96,33 m²</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>908.730 €</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5.5.20</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>111,78 m²</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.084.105 €</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5.5.19</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55,51 m²</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5.5.18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>55,86 m²</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5.5.17</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>113,43 m²</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.100.109 €</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6.5.20</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>121,99 m²</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.183.181 €</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reserved</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>6.5.18</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>68,42 m²</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>652.726 €</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>6.5.19</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86,77 m²</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>846.181 €</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.4.23</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>125,32 m²</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.4.22</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38,15 m²</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.4.21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39,16 m²</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.4.20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36,31 m²</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2.4.23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>36,60 m²</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2.4.22</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>43,07 m²</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.4.19</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>67,24 m²</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3.4.16</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>123,33 m²</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.117.739 €</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3.4.15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>54,46 m²</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3.4.14</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59,11 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3.4.13</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69,43 m²</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.4.11</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90,48 m²</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>863.179 €</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.4.12</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>101,92 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>961.513 €</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.4.10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>112,68 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.045.199 €</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.4.19</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64,18 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.4.18</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>39,07 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.4.24</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64,18 m²</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2.4.25</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39,07 m²</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2.4.20</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64,05 m²</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2.4.21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92,43 m²</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>852.389 €</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5.4.16</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>111,76 m²</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.048.420 €</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5.4.15</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55,52 m²</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6.4.15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86,77 m²</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>818.588 €</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.4.14</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>55,68 m²</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5.4.13</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>113,43 m²</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.064.039 €</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6.4.16</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>121,99 m²</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.144.388 €</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.4.13</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96,33 m²</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6.4.14</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68,42 m²</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>630.969 €</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2.3.12</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66,45 m²</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2.3.15</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>42,85 m²</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2.3.16</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36,59 m²</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1.3.14</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>36,13 m²</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.3.15</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>38,98 m²</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1.3.16</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>37,97 m²</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.3.17</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>124,38 m²</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3.3.12</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>122,51 m²</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.071.349 €</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3.3.11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54,17 m²</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3.3.10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>58,83 m²</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3.3.09</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>68,97 m²</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.3.09</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>100,95 m²</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>920.260 €</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.3.08</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90,19 m²</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>831.732 €</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.3.07</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>112,01 m²</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.003.273 €</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1.3.13</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>63,93 m²</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1.3.12</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>38,69 m²</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2.3.17</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>63,92 m²</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2.3.18</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>38,69 m²</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2.3.13</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>63,76 m²</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2.3.14</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91,83 m²</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>817.654 €</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5.3.12</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>111,07 m²</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.006.582 €</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5.3.11</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>55,23 m²</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5.3.10</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>55,57 m²</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>6.3.11</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85,70 m²</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>781.241 €</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>6.3.10</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68,12 m²</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6.3.09</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95,42 m²</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6.3.12</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>121,22 m²</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5.3.09</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>112,71 m²</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.021.445 €</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1.2.09</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>38,98 m²</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1.2.08</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36,13 m²</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1.2.11</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>124,38 m²</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2.2.09</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>36,42 m²</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2.2.08</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>42,80 m²</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.2.10</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>37,97 m²</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2.2.06</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>101,41 m²</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2.2.07</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>122,44 m²</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3.2.08</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>122,51 m²</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3.2.07</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>54,14 m²</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3.2.06</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>58,83 m²</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3.2.05</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>68,97 m²</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.2.06</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>100,95 m²</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.2.05</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90,18 m²</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.2.04</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>111,99 m²</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>967.481 €</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6.2.05</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>95,37 m²</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>808.737 €</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>reserved</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5.2.08</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>110,99 m²</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>960.626 €</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1.2.07</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>63,92 m²</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2.2.10</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>63,92 m²</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1.2.06</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>38,69 m²</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2.2.11</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>38,69 m²</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5.2.07</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>55,23 m²</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5.2.06</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>55,57 m²</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>6.2.06</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>68,12 m²</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>6.2.07</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85,63 m²</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>753.372 €</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>reserved</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6.2.08</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>121,22 m²</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.096.735 €</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5.2.05</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>112,67 m²</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1.1.04</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>38,35 m²</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.1.03</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>39,15 m²</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1.1.02</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>36,59 m²</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1.1.05</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>104,58 m²</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1.1.01</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>101,90 m²</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2.1.05</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>102,06 m²</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2.1.04</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>36,59 m²</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2.1.03</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>45,68 m²</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2.1.01</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>100,75 m²</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2.1.02</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>113,01 m²</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3.1.04</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>121,71 m²</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3.1.03</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>41,95 m²</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3.1.02</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>59,70 m²</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3.1.01</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>66,66 m²</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.1.02</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>71,94 m²</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.1.03</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>101,02 m²</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.1.01</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>110,14 m²</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5.1.04</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>108,83 m²</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5.1.03</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>56,32 m²</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5.1.02</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>42,98 m²</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>5.1.01</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>113,94 m²</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>960.172 €</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6.1.04</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>119,50 m²</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>6.1.01</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95,65 m²</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6.1.02</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>65,93 m²</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>franz</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>6.1.03</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81,19 m²</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0 €</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>1</t>
         </is>
